--- a/biology/Botanique/Pterostyrax_psilophyllus/Pterostyrax_psilophyllus.xlsx
+++ b/biology/Botanique/Pterostyrax_psilophyllus/Pterostyrax_psilophyllus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pterostyrax psylophyllus
-Pterostyrax psylophyllus est une espèce de plantes à fleurs de la famille des Styracacées. C'est un arbre à feuilles caduques originaire de Chine centrale qui fleurit au début de l'été[1].
+Pterostyrax psylophyllus est une espèce de plantes à fleurs de la famille des Styracacées. C'est un arbre à feuilles caduques originaire de Chine centrale qui fleurit au début de l'été.
 Synonyme : Pterostyrax cavaleriei Guillaumin
 Nom chinois : 白辛树
 Deux variétés sont répertoriées :
@@ -517,7 +529,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'un petit arbre à feuilles caduques pouvant atteindre 15 m de haut. De toutes les espèces du genre, c'est celle qui a le port le plus régulier et qui atteint la plus grande taille.
 Les feuilles sont alternes, simples et ovales de 5 à 15 cm de long sur 5 à 9 cm de large, assez densément velues, au bord du limbe en dents de scie. Le pétiole est long de 1 à 2 cm, densément pubescent en poils étoilés.
@@ -551,7 +565,9 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre est originaire de Chine centrale : ouest du Guangxi, Guizhou, sud-ouest du Hubei, est du Sichuan, nord-est du Yunnan.
 Son habitat d'origine est forestier, en sols assez humides entre 600 et 2500 m d'altitude.
